--- a/2023_docs_テーブル設計/SQL文出力ツール/m_expense_items_DATA.xlsx
+++ b/2023_docs_テーブル設計/SQL文出力ツール/m_expense_items_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masudakento\Desktop\wk20230226\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masudakento\git\portfolio2023\2023_docs_テーブル設計\SQL文出力ツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18800DDE-6C2C-4A38-8592-CDA05BE8FF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C37083-896D-4040-BC73-42AF76FC2279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="263" yWindow="383" windowWidth="23129" windowHeight="13650" activeTab="2" xr2:uid="{179B33A7-CF03-4898-8323-C9BCFA4B4D23}"/>
+    <workbookView xWindow="3060" yWindow="3150" windowWidth="23130" windowHeight="13650" activeTab="2" xr2:uid="{179B33A7-CF03-4898-8323-C9BCFA4B4D23}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -1257,9 +1257,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -1526,7 +1524,7 @@
       <selection activeCell="G19" sqref="G19"/>
       <selection pane="topRight" activeCell="G19" sqref="G19"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" outlineLevelCol="1" x14ac:dyDescent="0.7"/>
@@ -2576,7 +2574,7 @@
       <selection activeCell="G19" sqref="G19"/>
       <selection pane="topRight" activeCell="G19" sqref="G19"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" outlineLevelCol="1" x14ac:dyDescent="0.7"/>
@@ -3606,9 +3604,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
